--- a/DN_BUFFER.xlsx
+++ b/DN_BUFFER.xlsx
@@ -397,85 +397,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W1"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Date</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Program</v>
-      </c>
-      <c r="C1" t="str">
-        <v>PB#</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Task#</v>
-      </c>
-      <c r="E1" t="str">
-        <v>FXN</v>
-      </c>
-      <c r="F1" t="str">
-        <v>NV QTPM</v>
-      </c>
-      <c r="G1" t="str">
-        <v>WO</v>
-      </c>
-      <c r="H1" t="str">
-        <v>PN#</v>
-      </c>
-      <c r="I1" t="str">
-        <v>Target</v>
-      </c>
-      <c r="J1" t="str">
-        <v>Complete by PL</v>
-      </c>
-      <c r="K1" t="str">
-        <v>GR qty</v>
-      </c>
-      <c r="L1" t="str">
-        <v>DN#</v>
-      </c>
-      <c r="M1" t="str">
-        <v>DN Qty</v>
-      </c>
-      <c r="N1" t="str">
-        <v>Ship to</v>
-      </c>
-      <c r="O1" t="str">
-        <v>Carrier</v>
-      </c>
-      <c r="P1" t="str">
-        <v>Shipment Status</v>
-      </c>
-      <c r="Q1" t="str">
-        <v>Pre Alert/ Doc</v>
-      </c>
-      <c r="R1" t="str">
-        <v>Notes</v>
-      </c>
-      <c r="S1" t="str">
-        <v>FX SO</v>
-      </c>
-      <c r="T1" t="str">
-        <v>FX DN</v>
-      </c>
-      <c r="U1" t="str">
-        <v>SFC scan</v>
-      </c>
-      <c r="V1" t="str">
-        <v>FX GR invoice #</v>
-      </c>
-      <c r="W1" t="str">
-        <v>Owner</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1"/>
   </ignoredErrors>
 </worksheet>
 </file>